--- a/samples/output_2017-05-07T231442+02.xlsx
+++ b/samples/output_2017-05-07T231442+02.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,8 @@
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId6"/>
-    <pivotCache cacheId="9" r:id="rId7"/>
+    <pivotCache cacheId="46" r:id="rId6"/>
+    <pivotCache cacheId="49" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1102,11 +1102,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1932081968"/>
-        <c:axId val="1932073264"/>
+        <c:axId val="1707721376"/>
+        <c:axId val="1707718112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1932081968"/>
+        <c:axId val="1707721376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1116,7 +1116,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1932073264"/>
+        <c:crossAx val="1707718112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1124,7 +1124,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1932073264"/>
+        <c:axId val="1707718112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,7 +1135,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1932081968"/>
+        <c:crossAx val="1707721376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1974,11 +1974,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1932068912"/>
-        <c:axId val="1932082512"/>
+        <c:axId val="1707715392"/>
+        <c:axId val="1707718656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1932068912"/>
+        <c:axId val="1707715392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1988,7 +1988,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1932082512"/>
+        <c:crossAx val="1707718656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1996,7 +1996,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1932082512"/>
+        <c:axId val="1707718656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2007,7 +2007,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1932068912"/>
+        <c:crossAx val="1707715392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2060,6 +2060,18 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -2262,11 +2274,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1932077072"/>
-        <c:axId val="1932072720"/>
+        <c:axId val="1707717024"/>
+        <c:axId val="1707719200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1932077072"/>
+        <c:axId val="1707717024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2276,7 +2288,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1932072720"/>
+        <c:crossAx val="1707719200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2284,7 +2296,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1932072720"/>
+        <c:axId val="1707719200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2295,7 +2307,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1932077072"/>
+        <c:crossAx val="1707717024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2320,16 +2332,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2422,81 +2434,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Admin" refreshedDate="42862.968573032405" createdVersion="5" refreshedVersion="5" recordCount="7">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:C8" sheet="Period"/>
-  </cacheSource>
-  <cacheFields count="5">
-    <cacheField name="Date value" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2009-01-01T00:00:00" maxDate="2009-07-02T00:00:00" count="7">
-        <d v="2009-01-01T00:00:00"/>
-        <d v="2009-02-01T00:00:00"/>
-        <d v="2009-03-01T00:00:00"/>
-        <d v="2009-04-01T00:00:00"/>
-        <d v="2009-05-01T00:00:00"/>
-        <d v="2009-06-01T00:00:00"/>
-        <d v="2009-07-01T00:00:00"/>
-      </sharedItems>
-      <fieldGroup par="4" base="0">
-        <rangePr groupBy="months" startDate="2009-01-01T00:00:00" endDate="2009-07-02T00:00:00"/>
-        <groupItems count="14">
-          <s v="&lt;01-01-09"/>
-          <s v="janv"/>
-          <s v="févr"/>
-          <s v="mars"/>
-          <s v="avr"/>
-          <s v="mai"/>
-          <s v="juin"/>
-          <s v="juil"/>
-          <s v="août"/>
-          <s v="sept"/>
-          <s v="oct"/>
-          <s v="nov"/>
-          <s v="déc"/>
-          <s v="&gt;02-07-09"/>
-        </groupItems>
-      </fieldGroup>
-    </cacheField>
-    <cacheField name="Total in" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="100"/>
-    </cacheField>
-    <cacheField name="Total out" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="14.71469072" maxValue="362.66407787000003"/>
-    </cacheField>
-    <cacheField name="Quarters" numFmtId="0" databaseField="0">
-      <fieldGroup base="0">
-        <rangePr groupBy="quarters" startDate="2009-01-01T00:00:00" endDate="2009-07-02T00:00:00"/>
-        <groupItems count="6">
-          <s v="&lt;01-01-09"/>
-          <s v="Trimestre1"/>
-          <s v="Trimestre2"/>
-          <s v="Trimestre3"/>
-          <s v="Trimestre4"/>
-          <s v="&gt;02-07-09"/>
-        </groupItems>
-      </fieldGroup>
-    </cacheField>
-    <cacheField name="Years" numFmtId="0" databaseField="0">
-      <fieldGroup base="0">
-        <rangePr groupBy="years" startDate="2009-01-01T00:00:00" endDate="2009-07-02T00:00:00"/>
-        <groupItems count="3">
-          <s v="&lt;01-01-09"/>
-          <s v="2009"/>
-          <s v="&gt;02-07-09"/>
-        </groupItems>
-      </fieldGroup>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Admin" refreshedDate="42862.968573148151" createdVersion="5" refreshedVersion="5" recordCount="27">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Fabrice Goret" refreshedDate="42960.799376388888" createdVersion="5" refreshedVersion="5" recordCount="27">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:J28" sheet="Total"/>
   </cacheSource>
@@ -2611,7 +2549,410 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Fabrice Goret" refreshedDate="42960.799376736111" createdVersion="5" refreshedVersion="5" recordCount="7">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:C8" sheet="Period"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Date value" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2009-01-01T00:00:00" maxDate="2009-07-02T00:00:00" count="7">
+        <d v="2009-01-01T00:00:00"/>
+        <d v="2009-02-01T00:00:00"/>
+        <d v="2009-03-01T00:00:00"/>
+        <d v="2009-04-01T00:00:00"/>
+        <d v="2009-05-01T00:00:00"/>
+        <d v="2009-06-01T00:00:00"/>
+        <d v="2009-07-01T00:00:00"/>
+      </sharedItems>
+      <fieldGroup par="4" base="0">
+        <rangePr groupBy="months" startDate="2009-01-01T00:00:00" endDate="2009-07-02T00:00:00"/>
+        <groupItems count="14">
+          <s v="&lt;01-01-09"/>
+          <s v="janv"/>
+          <s v="févr"/>
+          <s v="mars"/>
+          <s v="avr"/>
+          <s v="mai"/>
+          <s v="juin"/>
+          <s v="juil"/>
+          <s v="août"/>
+          <s v="sept"/>
+          <s v="oct"/>
+          <s v="nov"/>
+          <s v="déc"/>
+          <s v="&gt;02-07-09"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Total in" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="100"/>
+    </cacheField>
+    <cacheField name="Total out" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="14.71469072" maxValue="362.66407787000003"/>
+    </cacheField>
+    <cacheField name="Quarters" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
+        <rangePr groupBy="quarters" startDate="2009-01-01T00:00:00" endDate="2009-07-02T00:00:00"/>
+        <groupItems count="6">
+          <s v="&lt;01-01-09"/>
+          <s v="Trimestre1"/>
+          <s v="Trimestre2"/>
+          <s v="Trimestre3"/>
+          <s v="Trimestre4"/>
+          <s v="&gt;02-07-09"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Years" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
+        <rangePr groupBy="years" startDate="2009-01-01T00:00:00" endDate="2009-07-02T00:00:00"/>
+        <groupItems count="3">
+          <s v="&lt;01-01-09"/>
+          <s v="2009"/>
+          <s v="&gt;02-07-09"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="27">
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <x v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <x v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <x v="8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="BNP"/>
+    <s v="2009-0011"/>
+    <x v="0"/>
+    <s v="PAIEMENT PAR CARTE DE BANQUE"/>
+    <s v="CORA LA LOUVIERE  LA LOUVIE 20/01/2009"/>
+    <m/>
+    <n v="-14.71469072"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="BNP"/>
+    <s v="2009-0017"/>
+    <x v="1"/>
+    <s v="PAIEMENT PAR CARTE DE BANQUE"/>
+    <s v="CORA LA LOUVIERE  LA LOUVIE 20/01/2009"/>
+    <m/>
+    <n v="-3.9973543629999999"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="BNP"/>
+    <s v="2009-0021"/>
+    <x v="2"/>
+    <s v="PAIEMENT PAR CARTE DE BANQUE"/>
+    <s v="CORA LA LOUVIERE  LA LOUVIE 20/01/2009"/>
+    <m/>
+    <n v="-1.8740726430000001"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="BNP"/>
+    <s v="2009-0023"/>
+    <x v="3"/>
+    <s v="PAIEMENT PAR CARTE DE BANQUE"/>
+    <s v="MEDIA MARKT MONS"/>
+    <m/>
+    <n v="-24.318487709999999"/>
+    <m/>
+    <x v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="BNP"/>
+    <s v="2009-0024"/>
+    <x v="3"/>
+    <s v="PAIEMENT PAR CARTE DE BANQUE"/>
+    <s v="MEDIA MARKT MONS"/>
+    <m/>
+    <n v="-15.807743309999999"/>
+    <m/>
+    <x v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="BNP"/>
+    <s v="2009-0033"/>
+    <x v="4"/>
+    <s v="PAIEMENT PAR CARTE DE BANQUE"/>
+    <s v="MEDIA MARKT MONS"/>
+    <m/>
+    <n v="-83.356076849999994"/>
+    <m/>
+    <x v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="BNP"/>
+    <s v="2009-0039"/>
+    <x v="5"/>
+    <s v="PAIEMENT PAR CARTE DE BANQUE"/>
+    <s v="CORA LA LOUVIERE  LA LOUVIE 20/01/2009"/>
+    <m/>
+    <n v="-36.086319670000002"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="BNP"/>
+    <s v="2009-0048"/>
+    <x v="6"/>
+    <s v="PAIEMENT PAR CARTE DE BANQUE"/>
+    <s v="CORA LA LOUVIERE  LA LOUVIE 20/01/2009"/>
+    <m/>
+    <n v="-24.04036112"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="BNP"/>
+    <s v="2009-0063"/>
+    <x v="7"/>
+    <s v="PAIEMENT PAR CARTE DE BANQUE"/>
+    <s v="MEDIA MARKT MONS"/>
+    <m/>
+    <n v="-34.879464130000002"/>
+    <m/>
+    <x v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="BNP"/>
+    <s v="2009-0064"/>
+    <x v="8"/>
+    <s v="PAIEMENT PAR CARTE DE BANQUE"/>
+    <s v="MEDIA MARKT MONS"/>
+    <m/>
+    <n v="-241.7178261"/>
+    <m/>
+    <x v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="BNP"/>
+    <s v="2009-0066"/>
+    <x v="9"/>
+    <s v="PAIEMENT PAR CARTE DE BANQUE"/>
+    <s v="CARREFOUR MONS"/>
+    <m/>
+    <n v="-9.3009336010000006"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="BNP"/>
+    <s v="2009-0067"/>
+    <x v="10"/>
+    <s v="PAIEMENT PAR CARTE DE BANQUE"/>
+    <s v="CARREFOUR MONS"/>
+    <m/>
+    <n v="-71.969576660000001"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="BNP"/>
+    <s v="2009-0073"/>
+    <x v="11"/>
+    <s v="PAIEMENT PAR CARTE DE BANQUE"/>
+    <s v="INTERMARCHE       SOIGNIES 08/12/2009 EXECUTE LE 08-12 DATE VALEUR : 08/12/2009 "/>
+    <m/>
+    <n v="-4.7962773790000002"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="BNP"/>
+    <s v="2009-0076"/>
+    <x v="12"/>
+    <s v="PAIEMENT PAR CARTE DE BANQUE"/>
+    <s v=" BRANTANO NIMY     NIMY 20/10/2009 DATE VALEUR : 20/10/2009 "/>
+    <m/>
+    <n v="-7.5598159310000002"/>
+    <m/>
+    <x v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="BNP"/>
+    <s v="2009-0078"/>
+    <x v="13"/>
+    <s v="PAIEMENT PAR CARTE DE BANQUE"/>
+    <s v="DECATHLON MONS    CUESMES 10/11/2009 DATE VALEUR : 10/11/2009 "/>
+    <m/>
+    <n v="-38.155104960000003"/>
+    <m/>
+    <x v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="BNP"/>
+    <s v="2009-0079"/>
+    <x v="13"/>
+    <s v="PAIEMENT PAR CARTE DE BANQUE"/>
+    <s v=" BRICOPLANIT       LA LOUVIE 04/07/2010 EXECUTE LE 04-07 DATE VALEUR : 04/07/2010 "/>
+    <m/>
+    <n v="-4.6403325249999998"/>
+    <m/>
+    <x v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="BNP"/>
+    <s v="2009-0091"/>
+    <x v="14"/>
+    <s v="PAIEMENT PAR CARTE DE BANQUE"/>
+    <s v="TEST SALAIRE "/>
+    <m/>
+    <n v="100"/>
+    <m/>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="BNP"/>
+    <s v="2009-0092"/>
+    <x v="14"/>
+    <s v="PAIEMENT PAR CARTE DE BANQUE"/>
+    <s v="ELECTRABEL BE46000325448336 BIC BPOTBEB1 "/>
+    <m/>
+    <n v="-31.957380149999999"/>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="7">
   <r>
     <x v="0"/>
@@ -2651,337 +2992,8 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="27">
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <x v="6"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <x v="7"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <x v="8"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="BNP"/>
-    <s v="2009-0011"/>
-    <x v="0"/>
-    <s v="PAIEMENT PAR CARTE DE BANQUE"/>
-    <s v="CORA LA LOUVIERE  LA LOUVIE 20/01/2009"/>
-    <m/>
-    <n v="-14.71469072"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="BNP"/>
-    <s v="2009-0017"/>
-    <x v="1"/>
-    <s v="PAIEMENT PAR CARTE DE BANQUE"/>
-    <s v="CORA LA LOUVIERE  LA LOUVIE 20/01/2009"/>
-    <m/>
-    <n v="-3.9973543629999999"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="BNP"/>
-    <s v="2009-0021"/>
-    <x v="2"/>
-    <s v="PAIEMENT PAR CARTE DE BANQUE"/>
-    <s v="CORA LA LOUVIERE  LA LOUVIE 20/01/2009"/>
-    <m/>
-    <n v="-1.8740726430000001"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="BNP"/>
-    <s v="2009-0023"/>
-    <x v="3"/>
-    <s v="PAIEMENT PAR CARTE DE BANQUE"/>
-    <s v="MEDIA MARKT MONS"/>
-    <m/>
-    <n v="-24.318487709999999"/>
-    <m/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="BNP"/>
-    <s v="2009-0024"/>
-    <x v="3"/>
-    <s v="PAIEMENT PAR CARTE DE BANQUE"/>
-    <s v="MEDIA MARKT MONS"/>
-    <m/>
-    <n v="-15.807743309999999"/>
-    <m/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="BNP"/>
-    <s v="2009-0033"/>
-    <x v="4"/>
-    <s v="PAIEMENT PAR CARTE DE BANQUE"/>
-    <s v="MEDIA MARKT MONS"/>
-    <m/>
-    <n v="-83.356076849999994"/>
-    <m/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="BNP"/>
-    <s v="2009-0039"/>
-    <x v="5"/>
-    <s v="PAIEMENT PAR CARTE DE BANQUE"/>
-    <s v="CORA LA LOUVIERE  LA LOUVIE 20/01/2009"/>
-    <m/>
-    <n v="-36.086319670000002"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="BNP"/>
-    <s v="2009-0048"/>
-    <x v="6"/>
-    <s v="PAIEMENT PAR CARTE DE BANQUE"/>
-    <s v="CORA LA LOUVIERE  LA LOUVIE 20/01/2009"/>
-    <m/>
-    <n v="-24.04036112"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="BNP"/>
-    <s v="2009-0063"/>
-    <x v="7"/>
-    <s v="PAIEMENT PAR CARTE DE BANQUE"/>
-    <s v="MEDIA MARKT MONS"/>
-    <m/>
-    <n v="-34.879464130000002"/>
-    <m/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="BNP"/>
-    <s v="2009-0064"/>
-    <x v="8"/>
-    <s v="PAIEMENT PAR CARTE DE BANQUE"/>
-    <s v="MEDIA MARKT MONS"/>
-    <m/>
-    <n v="-241.7178261"/>
-    <m/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="BNP"/>
-    <s v="2009-0066"/>
-    <x v="9"/>
-    <s v="PAIEMENT PAR CARTE DE BANQUE"/>
-    <s v="CARREFOUR MONS"/>
-    <m/>
-    <n v="-9.3009336010000006"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="BNP"/>
-    <s v="2009-0067"/>
-    <x v="10"/>
-    <s v="PAIEMENT PAR CARTE DE BANQUE"/>
-    <s v="CARREFOUR MONS"/>
-    <m/>
-    <n v="-71.969576660000001"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="BNP"/>
-    <s v="2009-0073"/>
-    <x v="11"/>
-    <s v="PAIEMENT PAR CARTE DE BANQUE"/>
-    <s v="INTERMARCHE       SOIGNIES 08/12/2009 EXECUTE LE 08-12 DATE VALEUR : 08/12/2009 "/>
-    <m/>
-    <n v="-4.7962773790000002"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="BNP"/>
-    <s v="2009-0076"/>
-    <x v="12"/>
-    <s v="PAIEMENT PAR CARTE DE BANQUE"/>
-    <s v=" BRANTANO NIMY     NIMY 20/10/2009 DATE VALEUR : 20/10/2009 "/>
-    <m/>
-    <n v="-7.5598159310000002"/>
-    <m/>
-    <x v="6"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="BNP"/>
-    <s v="2009-0078"/>
-    <x v="13"/>
-    <s v="PAIEMENT PAR CARTE DE BANQUE"/>
-    <s v="DECATHLON MONS    CUESMES 10/11/2009 DATE VALEUR : 10/11/2009 "/>
-    <m/>
-    <n v="-38.155104960000003"/>
-    <m/>
-    <x v="6"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="BNP"/>
-    <s v="2009-0079"/>
-    <x v="13"/>
-    <s v="PAIEMENT PAR CARTE DE BANQUE"/>
-    <s v=" BRICOPLANIT       LA LOUVIE 04/07/2010 EXECUTE LE 04-07 DATE VALEUR : 04/07/2010 "/>
-    <m/>
-    <n v="-4.6403325249999998"/>
-    <m/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="BNP"/>
-    <s v="2009-0091"/>
-    <x v="14"/>
-    <s v="PAIEMENT PAR CARTE DE BANQUE"/>
-    <s v="TEST SALAIRE "/>
-    <m/>
-    <n v="100"/>
-    <m/>
-    <x v="8"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="BNP"/>
-    <s v="2009-0092"/>
-    <x v="14"/>
-    <s v="PAIEMENT PAR CARTE DE BANQUE"/>
-    <s v="ELECTRABEL BE46000325448336 BIC BPOTBEB1 "/>
-    <m/>
-    <n v="-31.957380149999999"/>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PerCategory" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PerCategory" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:M12" firstHeaderRow="1" firstDataRow="2" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -3240,7 +3252,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PerPeriod" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PerPeriod" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A1:E10" firstHeaderRow="1" firstDataRow="2" firstDataCol="3"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" showAll="0">
@@ -3601,7 +3613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -4253,11 +4265,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
